--- a/src/test/resources/NS4S/2100 HKST.xlsx
+++ b/src/test/resources/NS4S/2100 HKST.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +452,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>3.38</v>
+        <v>4.59</v>
       </c>
       <c r="E2" s="2">
-        <v>4.29</v>
+        <v>3.12</v>
       </c>
       <c r="F2" s="2">
-        <v>4.1900000000000004</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>4.66</v>
+        <v>5.47</v>
       </c>
       <c r="E3" s="2">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="F3" s="2">
-        <v>4.96</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,13 +480,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>5.15</v>
+        <v>4.53</v>
       </c>
       <c r="E4" s="2">
-        <v>3.56</v>
+        <v>2.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2.91</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,15 +495,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.3966666666666665</v>
+        <v>4.8633333333333333</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.9966666666666666</v>
+        <v>3.2866666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.0200000000000005</v>
+        <v>4.3233333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="E6" s="2">
-        <v>3.68</v>
+        <v>3.19</v>
       </c>
       <c r="F6" s="2">
-        <v>3.71</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>4.74</v>
+        <v>5.03</v>
       </c>
       <c r="F7" s="2">
-        <v>4.6100000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>3.29</v>
+        <v>3.15</v>
       </c>
       <c r="E8" s="2">
-        <v>5.24</v>
+        <v>4.33</v>
       </c>
       <c r="F8" s="2">
-        <v>5.59</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,15 +557,15 @@
       </c>
       <c r="D9" s="1">
         <f>AVERAGE(D6:D8)</f>
-        <v>3.2533333333333339</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(E6:E8)</f>
-        <v>4.5533333333333337</v>
+        <v>4.1833333333333336</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(F6:F8)</f>
-        <v>4.6366666666666667</v>
+        <v>3.9066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>4.3099999999999996</v>
+        <v>5.35</v>
       </c>
       <c r="E10" s="2">
-        <v>2.74</v>
+        <v>4.24</v>
       </c>
       <c r="F10" s="2">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,13 +593,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>3.32</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E11" s="2">
-        <v>4.4400000000000004</v>
+        <v>5.55</v>
       </c>
       <c r="F11" s="2">
-        <v>3.83</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>2.8</v>
+        <v>3.18</v>
       </c>
       <c r="E12" s="2">
-        <v>5.7</v>
+        <v>3.31</v>
       </c>
       <c r="F12" s="2">
-        <v>3.3</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,15 +622,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>3.4766666666666666</v>
+        <v>4.4633333333333338</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.2933333333333339</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>3.5833333333333335</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>5.45</v>
+        <v>4.62</v>
       </c>
       <c r="E14" s="2">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="F14" s="2">
-        <v>3.78</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>3.43</v>
+        <v>4.08</v>
       </c>
       <c r="E15" s="2">
-        <v>4.91</v>
+        <v>3.78</v>
       </c>
       <c r="F15" s="2">
-        <v>2.98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>3.51</v>
+        <v>5.74</v>
       </c>
       <c r="E16" s="2">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="F16" s="2">
-        <v>5.71</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,15 +684,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.13</v>
+        <v>4.8133333333333335</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>5.3166666666666664</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.1566666666666663</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5.67</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>5.65</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,13 +720,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>3.49</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E19" s="2">
-        <v>5.7</v>
+        <v>2.85</v>
       </c>
       <c r="F19" s="2">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,13 +734,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>5.12</v>
+        <v>3.66</v>
       </c>
       <c r="E20" s="2">
-        <v>3.2</v>
+        <v>3.89</v>
       </c>
       <c r="F20" s="2">
-        <v>4.87</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,15 +749,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.7600000000000007</v>
+        <v>4.2766666666666664</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>4.8500000000000005</v>
+        <v>3.6300000000000003</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.4766666666666666</v>
+        <v>5.5799999999999992</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>5.58</v>
+        <v>2.85</v>
       </c>
       <c r="E22" s="2">
-        <v>5.42</v>
+        <v>4.01</v>
       </c>
       <c r="F22" s="2">
-        <v>2.92</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>4.9400000000000004</v>
+        <v>2.83</v>
       </c>
       <c r="E23" s="2">
-        <v>2.6</v>
+        <v>5.01</v>
       </c>
       <c r="F23" s="2">
-        <v>4.25</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.66</v>
+        <v>4.95</v>
       </c>
       <c r="E24" s="2">
-        <v>5.63</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.92</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,15 +811,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>5.0599999999999996</v>
+        <v>3.543333333333333</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.55</v>
+        <v>4.7733333333333334</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>3.3633333333333333</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/NS4S/2100 HKST.xlsx
+++ b/src/test/resources/NS4S/2100 HKST.xlsx
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +452,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>4.59</v>
+        <v>3.74</v>
       </c>
       <c r="E2" s="2">
-        <v>3.12</v>
+        <v>3.23</v>
       </c>
       <c r="F2" s="2">
-        <v>5.9</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>5.47</v>
+        <v>2.91</v>
       </c>
       <c r="E3" s="2">
-        <v>4.07</v>
+        <v>5.09</v>
       </c>
       <c r="F3" s="2">
-        <v>3.84</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -480,13 +480,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>4.53</v>
+        <v>4.57</v>
       </c>
       <c r="E4" s="2">
-        <v>2.67</v>
+        <v>5.86</v>
       </c>
       <c r="F4" s="2">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,15 +495,15 @@
       </c>
       <c r="D5" s="1">
         <f>AVERAGE(D2:D4)</f>
-        <v>4.8633333333333333</v>
+        <v>3.74</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E2:E4)</f>
-        <v>3.2866666666666666</v>
+        <v>4.7266666666666666</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(F2:F4)</f>
-        <v>4.3233333333333333</v>
+        <v>2.9366666666666661</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="E10" s="2">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="F10" s="2">
-        <v>2.77</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,13 +593,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E11" s="2">
-        <v>5.55</v>
+        <v>5.19</v>
       </c>
       <c r="F11" s="2">
-        <v>5.57</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,13 +607,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>3.18</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E12" s="2">
-        <v>3.31</v>
+        <v>4.99</v>
       </c>
       <c r="F12" s="2">
-        <v>4.92</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,15 +622,15 @@
       </c>
       <c r="D13" s="1">
         <f>AVERAGE(D10:D12)</f>
-        <v>4.4633333333333338</v>
+        <v>4.79</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(E10:E12)</f>
-        <v>4.3666666666666663</v>
+        <v>4.4233333333333338</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(F10:F12)</f>
-        <v>4.42</v>
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>4.62</v>
+        <v>5.16</v>
       </c>
       <c r="E14" s="2">
-        <v>3.7</v>
+        <v>3.68</v>
       </c>
       <c r="F14" s="2">
-        <v>3.81</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>4.08</v>
+        <v>5.71</v>
       </c>
       <c r="E15" s="2">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>5.74</v>
+        <v>4.33</v>
       </c>
       <c r="E16" s="2">
-        <v>5.82</v>
+        <v>2.89</v>
       </c>
       <c r="F16" s="2">
-        <v>5.07</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,15 +684,15 @@
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D14:D16)</f>
-        <v>4.8133333333333335</v>
+        <v>5.0666666666666673</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(E14:E16)</f>
-        <v>4.4333333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(F14:F16)</f>
-        <v>4.96</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.97</v>
       </c>
       <c r="E18" s="2">
-        <v>4.1500000000000004</v>
+        <v>5.66</v>
       </c>
       <c r="F18" s="2">
-        <v>5.85</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,13 +720,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>4.3099999999999996</v>
+        <v>3.41</v>
       </c>
       <c r="E19" s="2">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="F19" s="2">
-        <v>5.69</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,13 +734,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>3.66</v>
+        <v>2.72</v>
       </c>
       <c r="E20" s="2">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="2">
-        <v>5.2</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,15 +749,15 @@
       </c>
       <c r="D21" s="1">
         <f>AVERAGE(D18:D20)</f>
-        <v>4.2766666666666664</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="E21" s="1">
         <f>AVERAGE(E18:E20)</f>
-        <v>3.6300000000000003</v>
+        <v>5.2366666666666672</v>
       </c>
       <c r="F21" s="1">
         <f>AVERAGE(F18:F20)</f>
-        <v>5.5799999999999992</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,13 +768,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="2">
-        <v>2.85</v>
+        <v>5.25</v>
       </c>
       <c r="E22" s="2">
-        <v>4.01</v>
+        <v>4.21</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0199999999999996</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,13 +782,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>2.83</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2">
-        <v>5.01</v>
+        <v>3.79</v>
       </c>
       <c r="F23" s="2">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -796,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>4.95</v>
+        <v>3.44</v>
       </c>
       <c r="E24" s="2">
-        <v>5.3</v>
+        <v>4.79</v>
       </c>
       <c r="F24" s="2">
-        <v>4.59</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,15 +811,15 @@
       </c>
       <c r="D25" s="1">
         <f>AVERAGE(D22:D24)</f>
-        <v>3.543333333333333</v>
+        <v>3.8966666666666665</v>
       </c>
       <c r="E25" s="1">
         <f>AVERAGE(E22:E24)</f>
-        <v>4.7733333333333334</v>
+        <v>4.2633333333333328</v>
       </c>
       <c r="F25" s="1">
         <f>AVERAGE(F22:F24)</f>
-        <v>4.5599999999999996</v>
+        <v>3.7633333333333336</v>
       </c>
     </row>
   </sheetData>
